--- a/docs/Alteracoes_TRABALHO_1.xlsx
+++ b/docs/Alteracoes_TRABALHO_1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\NetBeansProjects\pcs2015.1\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>To-do-list de melhorias do trabalho 1</t>
   </si>
@@ -49,6 +54,12 @@
   </si>
   <si>
     <t>Modificar condições do método checkCharacterType utilizando métodos do java.lang para facilitar o entendimento</t>
+  </si>
+  <si>
+    <t>Criação de vetor parametro representando os tipos</t>
+  </si>
+  <si>
+    <t>Retirada de dezenas de condições atraves da criação de vetr de contadores de tipos onde se torna possivel simplificar a logica</t>
   </si>
 </sst>
 </file>
@@ -358,7 +369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -366,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,6 +438,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
